--- a/stock_historical_data/1mo/ERIS.NS.xlsx
+++ b/stock_historical_data/1mo/ERIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4563,9 +4808,12 @@
         <v>9</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,60 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B85" t="n">
+        <v>926</v>
+      </c>
+      <c r="C85" t="n">
+        <v>926</v>
+      </c>
+      <c r="D85" t="n">
+        <v>922</v>
+      </c>
+      <c r="E85" t="n">
+        <v>922</v>
+      </c>
+      <c r="F85" t="n">
+        <v>922</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>22</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/ERIS.NS.xlsx
+++ b/stock_historical_data/1mo/ERIS.NS.xlsx
@@ -4972,7 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
-      <c r="Q85" t="inlineStr"/>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/ERIS.NS.xlsx
+++ b/stock_historical_data/1mo/ERIS.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B2" t="n">
-        <v>599</v>
+        <v>574.4428351518457</v>
       </c>
       <c r="C2" t="n">
-        <v>728</v>
+        <v>581.1580988927213</v>
       </c>
       <c r="D2" t="n">
-        <v>550.0499877929688</v>
+        <v>565.9048920984899</v>
       </c>
       <c r="E2" t="n">
-        <v>601.3499755859375</v>
-      </c>
-      <c r="F2" t="n">
-        <v>580.164306640625</v>
-      </c>
+        <v>577.0330200195312</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>15575621</v>
+        <v>518461</v>
       </c>
       <c r="H2" t="n">
         <v>2017</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="B3" t="n">
-        <v>601.4500122070312</v>
+        <v>599</v>
       </c>
       <c r="C3" t="n">
-        <v>611.8499755859375</v>
+        <v>728</v>
       </c>
       <c r="D3" t="n">
-        <v>510</v>
+        <v>550.0499877929688</v>
       </c>
       <c r="E3" t="n">
-        <v>591</v>
+        <v>601.3499755859375</v>
       </c>
       <c r="F3" t="n">
-        <v>570.178955078125</v>
+        <v>580.164306640625</v>
       </c>
       <c r="G3" t="n">
-        <v>2703144</v>
+        <v>15575621</v>
       </c>
       <c r="H3" t="n">
         <v>2017</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B4" t="n">
-        <v>593.0499877929688</v>
+        <v>601.4500122070312</v>
       </c>
       <c r="C4" t="n">
-        <v>604</v>
+        <v>611.8499755859375</v>
       </c>
       <c r="D4" t="n">
-        <v>557</v>
+        <v>510</v>
       </c>
       <c r="E4" t="n">
-        <v>576.75</v>
+        <v>591</v>
       </c>
       <c r="F4" t="n">
-        <v>556.4310302734375</v>
+        <v>570.178955078125</v>
       </c>
       <c r="G4" t="n">
-        <v>1516517</v>
+        <v>2703144</v>
       </c>
       <c r="H4" t="n">
         <v>2017</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B5" t="n">
+        <v>593.0499877929688</v>
+      </c>
+      <c r="C5" t="n">
+        <v>604</v>
+      </c>
+      <c r="D5" t="n">
+        <v>557</v>
+      </c>
+      <c r="E5" t="n">
         <v>576.75</v>
       </c>
-      <c r="C5" t="n">
-        <v>599.7999877929688</v>
-      </c>
-      <c r="D5" t="n">
-        <v>561</v>
-      </c>
-      <c r="E5" t="n">
-        <v>583.7999877929688</v>
-      </c>
       <c r="F5" t="n">
-        <v>563.2325439453125</v>
+        <v>556.4310302734375</v>
       </c>
       <c r="G5" t="n">
-        <v>830331</v>
+        <v>1516517</v>
       </c>
       <c r="H5" t="n">
         <v>2017</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B6" t="n">
-        <v>586</v>
+        <v>576.75</v>
       </c>
       <c r="C6" t="n">
-        <v>833.7999877929688</v>
+        <v>599.7999877929688</v>
       </c>
       <c r="D6" t="n">
-        <v>565.0499877929688</v>
+        <v>561</v>
       </c>
       <c r="E6" t="n">
-        <v>802.4000244140625</v>
+        <v>583.7999877929688</v>
       </c>
       <c r="F6" t="n">
-        <v>774.1314086914062</v>
+        <v>563.2325439453125</v>
       </c>
       <c r="G6" t="n">
-        <v>5693219</v>
+        <v>830331</v>
       </c>
       <c r="H6" t="n">
         <v>2017</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B7" t="n">
-        <v>790</v>
+        <v>586</v>
       </c>
       <c r="C7" t="n">
-        <v>819.8499755859375</v>
+        <v>833.7999877929688</v>
       </c>
       <c r="D7" t="n">
-        <v>741.5499877929688</v>
+        <v>565.0499877929688</v>
       </c>
       <c r="E7" t="n">
-        <v>794.3499755859375</v>
+        <v>802.4000244140625</v>
       </c>
       <c r="F7" t="n">
-        <v>766.3648681640625</v>
+        <v>774.1314086914062</v>
       </c>
       <c r="G7" t="n">
-        <v>2935662</v>
+        <v>5693219</v>
       </c>
       <c r="H7" t="n">
         <v>2017</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="B8" t="n">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="C8" t="n">
-        <v>828.75</v>
+        <v>819.8499755859375</v>
       </c>
       <c r="D8" t="n">
-        <v>765</v>
+        <v>741.5499877929688</v>
       </c>
       <c r="E8" t="n">
-        <v>782.2000122070312</v>
+        <v>794.3499755859375</v>
       </c>
       <c r="F8" t="n">
-        <v>754.64306640625</v>
+        <v>766.3648681640625</v>
       </c>
       <c r="G8" t="n">
-        <v>2304347</v>
+        <v>2935662</v>
       </c>
       <c r="H8" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="B9" t="n">
-        <v>782.9000244140625</v>
+        <v>796</v>
       </c>
       <c r="C9" t="n">
-        <v>787</v>
+        <v>828.75</v>
       </c>
       <c r="D9" t="n">
-        <v>712.2999877929688</v>
+        <v>765</v>
       </c>
       <c r="E9" t="n">
-        <v>753.4500122070312</v>
+        <v>782.2000122070312</v>
       </c>
       <c r="F9" t="n">
-        <v>726.9058837890625</v>
+        <v>754.64306640625</v>
       </c>
       <c r="G9" t="n">
-        <v>1723815</v>
+        <v>2304347</v>
       </c>
       <c r="H9" t="n">
         <v>2018</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B10" t="n">
-        <v>753</v>
+        <v>782.9000244140625</v>
       </c>
       <c r="C10" t="n">
-        <v>849</v>
+        <v>787</v>
       </c>
       <c r="D10" t="n">
-        <v>745</v>
+        <v>712.2999877929688</v>
       </c>
       <c r="E10" t="n">
-        <v>799.75</v>
+        <v>753.4500122070312</v>
       </c>
       <c r="F10" t="n">
-        <v>771.5746459960938</v>
+        <v>726.9058837890625</v>
       </c>
       <c r="G10" t="n">
-        <v>4045049</v>
+        <v>1723815</v>
       </c>
       <c r="H10" t="n">
         <v>2018</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B11" t="n">
-        <v>787</v>
+        <v>753</v>
       </c>
       <c r="C11" t="n">
-        <v>820</v>
+        <v>849</v>
       </c>
       <c r="D11" t="n">
-        <v>748.9000244140625</v>
+        <v>745</v>
       </c>
       <c r="E11" t="n">
-        <v>783.0999755859375</v>
+        <v>799.75</v>
       </c>
       <c r="F11" t="n">
-        <v>755.5112915039062</v>
+        <v>771.5746459960938</v>
       </c>
       <c r="G11" t="n">
-        <v>853756</v>
+        <v>4045049</v>
       </c>
       <c r="H11" t="n">
         <v>2018</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B12" t="n">
+        <v>787</v>
+      </c>
+      <c r="C12" t="n">
+        <v>820</v>
+      </c>
+      <c r="D12" t="n">
+        <v>748.9000244140625</v>
+      </c>
+      <c r="E12" t="n">
         <v>783.0999755859375</v>
       </c>
-      <c r="C12" t="n">
-        <v>812</v>
-      </c>
-      <c r="D12" t="n">
-        <v>711.0999755859375</v>
-      </c>
-      <c r="E12" t="n">
-        <v>806.5999755859375</v>
-      </c>
       <c r="F12" t="n">
-        <v>778.183349609375</v>
+        <v>755.5112915039062</v>
       </c>
       <c r="G12" t="n">
-        <v>695039</v>
+        <v>853756</v>
       </c>
       <c r="H12" t="n">
         <v>2018</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B13" t="n">
-        <v>797</v>
+        <v>783.0999755859375</v>
       </c>
       <c r="C13" t="n">
-        <v>809.5</v>
+        <v>812</v>
       </c>
       <c r="D13" t="n">
-        <v>660.5</v>
+        <v>711.0999755859375</v>
       </c>
       <c r="E13" t="n">
-        <v>685.0499877929688</v>
+        <v>806.5999755859375</v>
       </c>
       <c r="F13" t="n">
-        <v>660.9155883789062</v>
+        <v>778.183349609375</v>
       </c>
       <c r="G13" t="n">
-        <v>1079938</v>
+        <v>695039</v>
       </c>
       <c r="H13" t="n">
         <v>2018</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B14" t="n">
-        <v>687.0499877929688</v>
+        <v>797</v>
       </c>
       <c r="C14" t="n">
-        <v>760.4000244140625</v>
+        <v>809.5</v>
       </c>
       <c r="D14" t="n">
-        <v>660.1500244140625</v>
+        <v>660.5</v>
       </c>
       <c r="E14" t="n">
-        <v>710.0499877929688</v>
+        <v>685.0499877929688</v>
       </c>
       <c r="F14" t="n">
-        <v>685.0347900390625</v>
+        <v>660.9155883789062</v>
       </c>
       <c r="G14" t="n">
-        <v>1014945</v>
+        <v>1079938</v>
       </c>
       <c r="H14" t="n">
         <v>2018</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1210,36 +1202,36 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B15" t="n">
-        <v>703.0499877929688</v>
+        <v>687.0499877929688</v>
       </c>
       <c r="C15" t="n">
-        <v>786</v>
+        <v>760.4000244140625</v>
       </c>
       <c r="D15" t="n">
-        <v>653.5</v>
+        <v>660.1500244140625</v>
       </c>
       <c r="E15" t="n">
-        <v>725.8499755859375</v>
+        <v>710.0499877929688</v>
       </c>
       <c r="F15" t="n">
-        <v>700.2781982421875</v>
+        <v>685.0347900390625</v>
       </c>
       <c r="G15" t="n">
-        <v>715128</v>
+        <v>1014945</v>
       </c>
       <c r="H15" t="n">
         <v>2018</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1263,36 +1255,36 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B16" t="n">
-        <v>725.7999877929688</v>
+        <v>703.0499877929688</v>
       </c>
       <c r="C16" t="n">
-        <v>780.2000122070312</v>
+        <v>786</v>
       </c>
       <c r="D16" t="n">
-        <v>683.6500244140625</v>
+        <v>653.5</v>
       </c>
       <c r="E16" t="n">
-        <v>729.9000244140625</v>
+        <v>725.8499755859375</v>
       </c>
       <c r="F16" t="n">
-        <v>704.1854858398438</v>
+        <v>700.2781982421875</v>
       </c>
       <c r="G16" t="n">
-        <v>517373</v>
+        <v>715128</v>
       </c>
       <c r="H16" t="n">
         <v>2018</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B17" t="n">
-        <v>744.4000244140625</v>
+        <v>725.7999877929688</v>
       </c>
       <c r="C17" t="n">
-        <v>744.4000244140625</v>
+        <v>780.2000122070312</v>
       </c>
       <c r="D17" t="n">
-        <v>657</v>
+        <v>683.6500244140625</v>
       </c>
       <c r="E17" t="n">
-        <v>680.4500122070312</v>
+        <v>729.9000244140625</v>
       </c>
       <c r="F17" t="n">
-        <v>656.4776000976562</v>
+        <v>704.1854858398438</v>
       </c>
       <c r="G17" t="n">
-        <v>767959</v>
+        <v>517373</v>
       </c>
       <c r="H17" t="n">
         <v>2018</v>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B18" t="n">
-        <v>674.5499877929688</v>
+        <v>744.4000244140625</v>
       </c>
       <c r="C18" t="n">
-        <v>689.75</v>
+        <v>744.4000244140625</v>
       </c>
       <c r="D18" t="n">
-        <v>572.5</v>
+        <v>657</v>
       </c>
       <c r="E18" t="n">
-        <v>622.25</v>
+        <v>680.4500122070312</v>
       </c>
       <c r="F18" t="n">
-        <v>600.3280029296875</v>
+        <v>656.4776000976562</v>
       </c>
       <c r="G18" t="n">
-        <v>927145</v>
+        <v>767959</v>
       </c>
       <c r="H18" t="n">
         <v>2018</v>
       </c>
       <c r="I18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B19" t="n">
-        <v>620</v>
+        <v>674.5499877929688</v>
       </c>
       <c r="C19" t="n">
-        <v>689</v>
+        <v>689.75</v>
       </c>
       <c r="D19" t="n">
-        <v>615</v>
+        <v>572.5</v>
       </c>
       <c r="E19" t="n">
-        <v>687.1500244140625</v>
+        <v>622.25</v>
       </c>
       <c r="F19" t="n">
-        <v>662.9415893554688</v>
+        <v>600.3280029296875</v>
       </c>
       <c r="G19" t="n">
-        <v>183625</v>
+        <v>927145</v>
       </c>
       <c r="H19" t="n">
         <v>2018</v>
       </c>
       <c r="I19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B20" t="n">
-        <v>689.5</v>
+        <v>620</v>
       </c>
       <c r="C20" t="n">
-        <v>746</v>
+        <v>689</v>
       </c>
       <c r="D20" t="n">
-        <v>615.5</v>
+        <v>615</v>
       </c>
       <c r="E20" t="n">
-        <v>627.4000244140625</v>
+        <v>687.1500244140625</v>
       </c>
       <c r="F20" t="n">
-        <v>605.296630859375</v>
+        <v>662.9415893554688</v>
       </c>
       <c r="G20" t="n">
-        <v>648607</v>
+        <v>183625</v>
       </c>
       <c r="H20" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B21" t="n">
-        <v>638.25</v>
+        <v>689.5</v>
       </c>
       <c r="C21" t="n">
-        <v>681.5</v>
+        <v>746</v>
       </c>
       <c r="D21" t="n">
-        <v>595</v>
+        <v>615.5</v>
       </c>
       <c r="E21" t="n">
-        <v>609.25</v>
+        <v>627.4000244140625</v>
       </c>
       <c r="F21" t="n">
-        <v>587.7860717773438</v>
+        <v>605.296630859375</v>
       </c>
       <c r="G21" t="n">
-        <v>324510</v>
+        <v>648607</v>
       </c>
       <c r="H21" t="n">
         <v>2019</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B22" t="n">
-        <v>611.3499755859375</v>
+        <v>638.25</v>
       </c>
       <c r="C22" t="n">
-        <v>660</v>
+        <v>681.5</v>
       </c>
       <c r="D22" t="n">
-        <v>596.3499755859375</v>
+        <v>595</v>
       </c>
       <c r="E22" t="n">
-        <v>644.9000244140625</v>
+        <v>609.25</v>
       </c>
       <c r="F22" t="n">
-        <v>622.1800537109375</v>
+        <v>587.7860717773438</v>
       </c>
       <c r="G22" t="n">
-        <v>314170</v>
+        <v>324510</v>
       </c>
       <c r="H22" t="n">
         <v>2019</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B23" t="n">
-        <v>648.3499755859375</v>
+        <v>611.3499755859375</v>
       </c>
       <c r="C23" t="n">
-        <v>649.9000244140625</v>
+        <v>660</v>
       </c>
       <c r="D23" t="n">
-        <v>609.5499877929688</v>
+        <v>596.3499755859375</v>
       </c>
       <c r="E23" t="n">
-        <v>631.9500122070312</v>
+        <v>644.9000244140625</v>
       </c>
       <c r="F23" t="n">
-        <v>609.6863403320312</v>
+        <v>622.1800537109375</v>
       </c>
       <c r="G23" t="n">
-        <v>160133</v>
+        <v>314170</v>
       </c>
       <c r="H23" t="n">
         <v>2019</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B24" t="n">
+        <v>648.3499755859375</v>
+      </c>
+      <c r="C24" t="n">
+        <v>649.9000244140625</v>
+      </c>
+      <c r="D24" t="n">
+        <v>609.5499877929688</v>
+      </c>
+      <c r="E24" t="n">
         <v>631.9500122070312</v>
       </c>
-      <c r="C24" t="n">
-        <v>636.1500244140625</v>
-      </c>
-      <c r="D24" t="n">
-        <v>501.8999938964844</v>
-      </c>
-      <c r="E24" t="n">
-        <v>524.25</v>
-      </c>
       <c r="F24" t="n">
-        <v>505.7806396484375</v>
+        <v>609.6863403320312</v>
       </c>
       <c r="G24" t="n">
-        <v>790530</v>
+        <v>160133</v>
       </c>
       <c r="H24" t="n">
         <v>2019</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1740,36 +1732,36 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B25" t="n">
-        <v>529.9000244140625</v>
+        <v>631.9500122070312</v>
       </c>
       <c r="C25" t="n">
-        <v>534</v>
+        <v>636.1500244140625</v>
       </c>
       <c r="D25" t="n">
-        <v>473.5</v>
+        <v>501.8999938964844</v>
       </c>
       <c r="E25" t="n">
-        <v>509.9500122070312</v>
+        <v>524.25</v>
       </c>
       <c r="F25" t="n">
-        <v>491.984375</v>
+        <v>505.7806396484375</v>
       </c>
       <c r="G25" t="n">
-        <v>540329</v>
+        <v>790530</v>
       </c>
       <c r="H25" t="n">
         <v>2019</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1793,36 +1785,36 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B26" t="n">
-        <v>508</v>
+        <v>529.9000244140625</v>
       </c>
       <c r="C26" t="n">
-        <v>518.9000244140625</v>
+        <v>534</v>
       </c>
       <c r="D26" t="n">
-        <v>378.0499877929688</v>
+        <v>473.5</v>
       </c>
       <c r="E26" t="n">
-        <v>408.1499938964844</v>
+        <v>509.9500122070312</v>
       </c>
       <c r="F26" t="n">
-        <v>393.7708129882812</v>
+        <v>491.984375</v>
       </c>
       <c r="G26" t="n">
-        <v>1770352</v>
+        <v>540329</v>
       </c>
       <c r="H26" t="n">
         <v>2019</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B27" t="n">
-        <v>407.9500122070312</v>
+        <v>508</v>
       </c>
       <c r="C27" t="n">
-        <v>430</v>
+        <v>518.9000244140625</v>
       </c>
       <c r="D27" t="n">
-        <v>358.25</v>
+        <v>378.0499877929688</v>
       </c>
       <c r="E27" t="n">
-        <v>379.7999877929688</v>
+        <v>408.1499938964844</v>
       </c>
       <c r="F27" t="n">
-        <v>366.4195861816406</v>
+        <v>393.7708129882812</v>
       </c>
       <c r="G27" t="n">
-        <v>1637484</v>
+        <v>1770352</v>
       </c>
       <c r="H27" t="n">
         <v>2019</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B28" t="n">
+        <v>407.9500122070312</v>
+      </c>
+      <c r="C28" t="n">
+        <v>430</v>
+      </c>
+      <c r="D28" t="n">
+        <v>358.25</v>
+      </c>
+      <c r="E28" t="n">
         <v>379.7999877929688</v>
       </c>
-      <c r="C28" t="n">
-        <v>454.8999938964844</v>
-      </c>
-      <c r="D28" t="n">
-        <v>358.1000061035156</v>
-      </c>
-      <c r="E28" t="n">
-        <v>451.2000122070312</v>
-      </c>
       <c r="F28" t="n">
-        <v>435.3041687011719</v>
+        <v>366.4195861816406</v>
       </c>
       <c r="G28" t="n">
-        <v>2365028</v>
+        <v>1637484</v>
       </c>
       <c r="H28" t="n">
         <v>2019</v>
       </c>
       <c r="I28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B29" t="n">
-        <v>452.9500122070312</v>
+        <v>379.7999877929688</v>
       </c>
       <c r="C29" t="n">
-        <v>463.1000061035156</v>
+        <v>454.8999938964844</v>
       </c>
       <c r="D29" t="n">
-        <v>397.7000122070312</v>
+        <v>358.1000061035156</v>
       </c>
       <c r="E29" t="n">
-        <v>433.1499938964844</v>
+        <v>451.2000122070312</v>
       </c>
       <c r="F29" t="n">
-        <v>417.8900451660156</v>
+        <v>435.3041687011719</v>
       </c>
       <c r="G29" t="n">
-        <v>1981251</v>
+        <v>2365028</v>
       </c>
       <c r="H29" t="n">
         <v>2019</v>
       </c>
       <c r="I29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B30" t="n">
+        <v>452.9500122070312</v>
+      </c>
+      <c r="C30" t="n">
+        <v>463.1000061035156</v>
+      </c>
+      <c r="D30" t="n">
+        <v>397.7000122070312</v>
+      </c>
+      <c r="E30" t="n">
         <v>433.1499938964844</v>
       </c>
-      <c r="C30" t="n">
-        <v>473</v>
-      </c>
-      <c r="D30" t="n">
-        <v>401</v>
-      </c>
-      <c r="E30" t="n">
-        <v>460.8999938964844</v>
-      </c>
       <c r="F30" t="n">
-        <v>444.6624450683594</v>
+        <v>417.8900451660156</v>
       </c>
       <c r="G30" t="n">
-        <v>6253053</v>
+        <v>1981251</v>
       </c>
       <c r="H30" t="n">
         <v>2019</v>
       </c>
       <c r="I30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2063,31 +2055,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B31" t="n">
-        <v>459.5</v>
+        <v>433.1499938964844</v>
       </c>
       <c r="C31" t="n">
-        <v>509.7000122070312</v>
+        <v>473</v>
       </c>
       <c r="D31" t="n">
-        <v>431.2999877929688</v>
+        <v>401</v>
       </c>
       <c r="E31" t="n">
-        <v>474</v>
+        <v>460.8999938964844</v>
       </c>
       <c r="F31" t="n">
-        <v>457.3009033203125</v>
+        <v>444.6624450683594</v>
       </c>
       <c r="G31" t="n">
-        <v>3598289</v>
+        <v>6253053</v>
       </c>
       <c r="H31" t="n">
         <v>2019</v>
       </c>
       <c r="I31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2116,31 +2108,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B32" t="n">
-        <v>475</v>
+        <v>459.5</v>
       </c>
       <c r="C32" t="n">
-        <v>546.5999755859375</v>
+        <v>509.7000122070312</v>
       </c>
       <c r="D32" t="n">
-        <v>471.0499877929688</v>
+        <v>431.2999877929688</v>
       </c>
       <c r="E32" t="n">
-        <v>526.9500122070312</v>
+        <v>474</v>
       </c>
       <c r="F32" t="n">
-        <v>508.385498046875</v>
+        <v>457.3009033203125</v>
       </c>
       <c r="G32" t="n">
-        <v>1437175</v>
+        <v>3598289</v>
       </c>
       <c r="H32" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2164,36 +2156,36 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B33" t="n">
-        <v>525.9000244140625</v>
+        <v>475</v>
       </c>
       <c r="C33" t="n">
-        <v>560</v>
+        <v>546.5999755859375</v>
       </c>
       <c r="D33" t="n">
-        <v>404</v>
+        <v>471.0499877929688</v>
       </c>
       <c r="E33" t="n">
-        <v>433.6499938964844</v>
+        <v>526.9500122070312</v>
       </c>
       <c r="F33" t="n">
-        <v>418.3724670410156</v>
+        <v>508.385498046875</v>
       </c>
       <c r="G33" t="n">
-        <v>2940526</v>
+        <v>1437175</v>
       </c>
       <c r="H33" t="n">
         <v>2020</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,45 +2200,45 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B34" t="n">
-        <v>440</v>
+        <v>525.9000244140625</v>
       </c>
       <c r="C34" t="n">
-        <v>449</v>
+        <v>560</v>
       </c>
       <c r="D34" t="n">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="E34" t="n">
-        <v>368.8999938964844</v>
+        <v>433.6499938964844</v>
       </c>
       <c r="F34" t="n">
-        <v>355.9035949707031</v>
+        <v>418.3724670410156</v>
       </c>
       <c r="G34" t="n">
-        <v>1998846</v>
+        <v>2940526</v>
       </c>
       <c r="H34" t="n">
         <v>2020</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -2275,31 +2267,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B35" t="n">
-        <v>377.5499877929688</v>
+        <v>440</v>
       </c>
       <c r="C35" t="n">
-        <v>527.7999877929688</v>
+        <v>449</v>
       </c>
       <c r="D35" t="n">
-        <v>365.0499877929688</v>
+        <v>321</v>
       </c>
       <c r="E35" t="n">
-        <v>500.7999877929688</v>
+        <v>368.8999938964844</v>
       </c>
       <c r="F35" t="n">
-        <v>486.7539672851562</v>
+        <v>355.9035949707031</v>
       </c>
       <c r="G35" t="n">
-        <v>1637603</v>
+        <v>1998846</v>
       </c>
       <c r="H35" t="n">
         <v>2020</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2328,31 +2320,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B36" t="n">
+        <v>377.5499877929688</v>
+      </c>
+      <c r="C36" t="n">
+        <v>527.7999877929688</v>
+      </c>
+      <c r="D36" t="n">
+        <v>365.0499877929688</v>
+      </c>
+      <c r="E36" t="n">
         <v>500.7999877929688</v>
       </c>
-      <c r="C36" t="n">
-        <v>515</v>
-      </c>
-      <c r="D36" t="n">
-        <v>460.0499877929688</v>
-      </c>
-      <c r="E36" t="n">
-        <v>499.9500122070312</v>
-      </c>
       <c r="F36" t="n">
-        <v>485.9278564453125</v>
+        <v>486.7539672851562</v>
       </c>
       <c r="G36" t="n">
-        <v>591324</v>
+        <v>1637603</v>
       </c>
       <c r="H36" t="n">
         <v>2020</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B37" t="n">
-        <v>510.25</v>
+        <v>500.7999877929688</v>
       </c>
       <c r="C37" t="n">
-        <v>595</v>
+        <v>515</v>
       </c>
       <c r="D37" t="n">
-        <v>454.3999938964844</v>
+        <v>460.0499877929688</v>
       </c>
       <c r="E37" t="n">
-        <v>457.25</v>
+        <v>499.9500122070312</v>
       </c>
       <c r="F37" t="n">
-        <v>444.4254150390625</v>
+        <v>485.9278564453125</v>
       </c>
       <c r="G37" t="n">
-        <v>2436884</v>
+        <v>591324</v>
       </c>
       <c r="H37" t="n">
         <v>2020</v>
       </c>
       <c r="I37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,45 +2412,45 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B38" t="n">
-        <v>457.5</v>
+        <v>510.25</v>
       </c>
       <c r="C38" t="n">
-        <v>497</v>
+        <v>595</v>
       </c>
       <c r="D38" t="n">
-        <v>400.7999877929688</v>
+        <v>454.3999938964844</v>
       </c>
       <c r="E38" t="n">
-        <v>491.2999877929688</v>
+        <v>457.25</v>
       </c>
       <c r="F38" t="n">
-        <v>477.5204162597656</v>
+        <v>444.4254150390625</v>
       </c>
       <c r="G38" t="n">
-        <v>5363479</v>
+        <v>2436884</v>
       </c>
       <c r="H38" t="n">
         <v>2020</v>
       </c>
       <c r="I38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,45 +2465,45 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B39" t="n">
-        <v>491.7000122070312</v>
+        <v>457.5</v>
       </c>
       <c r="C39" t="n">
-        <v>590</v>
+        <v>497</v>
       </c>
       <c r="D39" t="n">
-        <v>480</v>
+        <v>400.7999877929688</v>
       </c>
       <c r="E39" t="n">
-        <v>481.6000061035156</v>
+        <v>491.2999877929688</v>
       </c>
       <c r="F39" t="n">
-        <v>468.0924682617188</v>
+        <v>477.5204162597656</v>
       </c>
       <c r="G39" t="n">
-        <v>5954920</v>
+        <v>5363479</v>
       </c>
       <c r="H39" t="n">
         <v>2020</v>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2535,36 +2527,36 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B40" t="n">
+        <v>491.7000122070312</v>
+      </c>
+      <c r="C40" t="n">
+        <v>590</v>
+      </c>
+      <c r="D40" t="n">
+        <v>480</v>
+      </c>
+      <c r="E40" t="n">
         <v>481.6000061035156</v>
       </c>
-      <c r="C40" t="n">
-        <v>570</v>
-      </c>
-      <c r="D40" t="n">
-        <v>470</v>
-      </c>
-      <c r="E40" t="n">
-        <v>538.2000122070312</v>
-      </c>
       <c r="F40" t="n">
-        <v>528.2880249023438</v>
+        <v>468.0924682617188</v>
       </c>
       <c r="G40" t="n">
-        <v>5543738</v>
+        <v>5954920</v>
       </c>
       <c r="H40" t="n">
         <v>2020</v>
       </c>
       <c r="I40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2593,31 +2585,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B41" t="n">
-        <v>544</v>
+        <v>481.6000061035156</v>
       </c>
       <c r="C41" t="n">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="D41" t="n">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="E41" t="n">
-        <v>500.7999877929688</v>
+        <v>538.2000122070312</v>
       </c>
       <c r="F41" t="n">
-        <v>491.5767822265625</v>
+        <v>528.2880249023438</v>
       </c>
       <c r="G41" t="n">
-        <v>1642340</v>
+        <v>5543738</v>
       </c>
       <c r="H41" t="n">
         <v>2020</v>
       </c>
       <c r="I41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2641,36 +2633,36 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B42" t="n">
-        <v>501.0499877929688</v>
+        <v>544</v>
       </c>
       <c r="C42" t="n">
-        <v>536.5499877929688</v>
+        <v>555</v>
       </c>
       <c r="D42" t="n">
-        <v>497.4500122070312</v>
+        <v>484</v>
       </c>
       <c r="E42" t="n">
-        <v>521.3499755859375</v>
+        <v>500.7999877929688</v>
       </c>
       <c r="F42" t="n">
-        <v>511.748291015625</v>
+        <v>491.5767822265625</v>
       </c>
       <c r="G42" t="n">
-        <v>1990404</v>
+        <v>1642340</v>
       </c>
       <c r="H42" t="n">
         <v>2020</v>
       </c>
       <c r="I42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2694,36 +2686,36 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B43" t="n">
-        <v>520.2999877929688</v>
+        <v>501.0499877929688</v>
       </c>
       <c r="C43" t="n">
-        <v>605</v>
+        <v>536.5499877929688</v>
       </c>
       <c r="D43" t="n">
-        <v>516.7999877929688</v>
+        <v>497.4500122070312</v>
       </c>
       <c r="E43" t="n">
-        <v>579.9500122070312</v>
+        <v>521.3499755859375</v>
       </c>
       <c r="F43" t="n">
-        <v>569.2691040039062</v>
+        <v>511.748291015625</v>
       </c>
       <c r="G43" t="n">
-        <v>5752491</v>
+        <v>1990404</v>
       </c>
       <c r="H43" t="n">
         <v>2020</v>
       </c>
       <c r="I43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2752,31 +2744,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B44" t="n">
-        <v>580</v>
+        <v>520.2999877929688</v>
       </c>
       <c r="C44" t="n">
-        <v>643.2000122070312</v>
+        <v>605</v>
       </c>
       <c r="D44" t="n">
-        <v>568</v>
+        <v>516.7999877929688</v>
       </c>
       <c r="E44" t="n">
-        <v>605.7000122070312</v>
+        <v>579.9500122070312</v>
       </c>
       <c r="F44" t="n">
-        <v>594.5448608398438</v>
+        <v>569.2691040039062</v>
       </c>
       <c r="G44" t="n">
-        <v>3549922</v>
+        <v>5752491</v>
       </c>
       <c r="H44" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2805,31 +2797,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B45" t="n">
-        <v>610.9000244140625</v>
+        <v>580</v>
       </c>
       <c r="C45" t="n">
-        <v>627.5</v>
+        <v>643.2000122070312</v>
       </c>
       <c r="D45" t="n">
-        <v>473.5</v>
+        <v>568</v>
       </c>
       <c r="E45" t="n">
-        <v>586.4000244140625</v>
+        <v>605.7000122070312</v>
       </c>
       <c r="F45" t="n">
-        <v>575.600341796875</v>
+        <v>594.5448608398438</v>
       </c>
       <c r="G45" t="n">
-        <v>2858119</v>
+        <v>3549922</v>
       </c>
       <c r="H45" t="n">
         <v>2021</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -2858,31 +2850,31 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B46" t="n">
-        <v>599.9000244140625</v>
+        <v>610.9000244140625</v>
       </c>
       <c r="C46" t="n">
-        <v>645.25</v>
+        <v>627.5</v>
       </c>
       <c r="D46" t="n">
-        <v>568.7000122070312</v>
+        <v>473.5</v>
       </c>
       <c r="E46" t="n">
-        <v>605</v>
+        <v>586.4000244140625</v>
       </c>
       <c r="F46" t="n">
-        <v>593.8577270507812</v>
+        <v>575.600341796875</v>
       </c>
       <c r="G46" t="n">
-        <v>6319087</v>
+        <v>2858119</v>
       </c>
       <c r="H46" t="n">
         <v>2021</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -2911,31 +2903,31 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B47" t="n">
-        <v>620.5499877929688</v>
+        <v>599.9000244140625</v>
       </c>
       <c r="C47" t="n">
-        <v>634</v>
+        <v>645.25</v>
       </c>
       <c r="D47" t="n">
-        <v>576.5999755859375</v>
+        <v>568.7000122070312</v>
       </c>
       <c r="E47" t="n">
-        <v>601.9500122070312</v>
+        <v>605</v>
       </c>
       <c r="F47" t="n">
-        <v>590.8639526367188</v>
+        <v>593.8577270507812</v>
       </c>
       <c r="G47" t="n">
-        <v>1942540</v>
+        <v>6319087</v>
       </c>
       <c r="H47" t="n">
         <v>2021</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -2964,31 +2956,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B48" t="n">
+        <v>620.5499877929688</v>
+      </c>
+      <c r="C48" t="n">
+        <v>634</v>
+      </c>
+      <c r="D48" t="n">
+        <v>576.5999755859375</v>
+      </c>
+      <c r="E48" t="n">
         <v>601.9500122070312</v>
       </c>
-      <c r="C48" t="n">
-        <v>734.9000244140625</v>
-      </c>
-      <c r="D48" t="n">
-        <v>586</v>
-      </c>
-      <c r="E48" t="n">
-        <v>709.4000244140625</v>
-      </c>
       <c r="F48" t="n">
-        <v>696.3350830078125</v>
+        <v>590.8639526367188</v>
       </c>
       <c r="G48" t="n">
-        <v>8813131</v>
+        <v>1942540</v>
       </c>
       <c r="H48" t="n">
         <v>2021</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3017,31 +3009,31 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B49" t="n">
-        <v>711</v>
+        <v>601.9500122070312</v>
       </c>
       <c r="C49" t="n">
-        <v>730</v>
+        <v>734.9000244140625</v>
       </c>
       <c r="D49" t="n">
-        <v>682.3499755859375</v>
+        <v>586</v>
       </c>
       <c r="E49" t="n">
-        <v>707.5</v>
+        <v>709.4000244140625</v>
       </c>
       <c r="F49" t="n">
-        <v>694.4700317382812</v>
+        <v>696.3350830078125</v>
       </c>
       <c r="G49" t="n">
-        <v>2526286</v>
+        <v>8813131</v>
       </c>
       <c r="H49" t="n">
         <v>2021</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3065,36 +3057,36 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B50" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C50" t="n">
-        <v>819.7000122070312</v>
+        <v>730</v>
       </c>
       <c r="D50" t="n">
-        <v>696</v>
+        <v>682.3499755859375</v>
       </c>
       <c r="E50" t="n">
-        <v>790.75</v>
+        <v>707.5</v>
       </c>
       <c r="F50" t="n">
-        <v>776.1868286132812</v>
+        <v>694.4700317382812</v>
       </c>
       <c r="G50" t="n">
-        <v>5840206</v>
+        <v>2526286</v>
       </c>
       <c r="H50" t="n">
         <v>2021</v>
       </c>
       <c r="I50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3118,36 +3110,36 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B51" t="n">
-        <v>798</v>
+        <v>708</v>
       </c>
       <c r="C51" t="n">
-        <v>802.75</v>
+        <v>819.7000122070312</v>
       </c>
       <c r="D51" t="n">
-        <v>713.4500122070312</v>
+        <v>696</v>
       </c>
       <c r="E51" t="n">
-        <v>731</v>
+        <v>790.75</v>
       </c>
       <c r="F51" t="n">
-        <v>717.5372314453125</v>
+        <v>776.1868286132812</v>
       </c>
       <c r="G51" t="n">
-        <v>1516137</v>
+        <v>5840206</v>
       </c>
       <c r="H51" t="n">
         <v>2021</v>
       </c>
       <c r="I51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3176,31 +3168,31 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B52" t="n">
-        <v>727.2999877929688</v>
+        <v>798</v>
       </c>
       <c r="C52" t="n">
-        <v>796.9500122070312</v>
+        <v>802.75</v>
       </c>
       <c r="D52" t="n">
-        <v>722</v>
+        <v>713.4500122070312</v>
       </c>
       <c r="E52" t="n">
-        <v>760.5499877929688</v>
+        <v>731</v>
       </c>
       <c r="F52" t="n">
-        <v>752.5217895507812</v>
+        <v>717.5372314453125</v>
       </c>
       <c r="G52" t="n">
-        <v>1642019</v>
+        <v>1516137</v>
       </c>
       <c r="H52" t="n">
         <v>2021</v>
       </c>
       <c r="I52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3229,31 +3221,31 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B53" t="n">
-        <v>761.9500122070312</v>
+        <v>727.2999877929688</v>
       </c>
       <c r="C53" t="n">
-        <v>863</v>
+        <v>796.9500122070312</v>
       </c>
       <c r="D53" t="n">
-        <v>737.9500122070312</v>
+        <v>722</v>
       </c>
       <c r="E53" t="n">
-        <v>821</v>
+        <v>760.5499877929688</v>
       </c>
       <c r="F53" t="n">
-        <v>812.3336791992188</v>
+        <v>752.5217895507812</v>
       </c>
       <c r="G53" t="n">
-        <v>2590287</v>
+        <v>1642019</v>
       </c>
       <c r="H53" t="n">
         <v>2021</v>
       </c>
       <c r="I53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3282,31 +3274,31 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B54" t="n">
-        <v>814</v>
+        <v>761.9500122070312</v>
       </c>
       <c r="C54" t="n">
-        <v>835</v>
+        <v>863</v>
       </c>
       <c r="D54" t="n">
-        <v>707.7000122070312</v>
+        <v>737.9500122070312</v>
       </c>
       <c r="E54" t="n">
-        <v>719.5999755859375</v>
+        <v>821</v>
       </c>
       <c r="F54" t="n">
-        <v>712.0040283203125</v>
+        <v>812.3336791992188</v>
       </c>
       <c r="G54" t="n">
-        <v>1614441</v>
+        <v>2590287</v>
       </c>
       <c r="H54" t="n">
         <v>2021</v>
       </c>
       <c r="I54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3335,31 +3327,31 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B55" t="n">
-        <v>711</v>
+        <v>814</v>
       </c>
       <c r="C55" t="n">
-        <v>774</v>
+        <v>835</v>
       </c>
       <c r="D55" t="n">
-        <v>670</v>
+        <v>707.7000122070312</v>
       </c>
       <c r="E55" t="n">
-        <v>760.0499877929688</v>
+        <v>719.5999755859375</v>
       </c>
       <c r="F55" t="n">
-        <v>752.0270385742188</v>
+        <v>712.0040283203125</v>
       </c>
       <c r="G55" t="n">
-        <v>3463784</v>
+        <v>1614441</v>
       </c>
       <c r="H55" t="n">
         <v>2021</v>
       </c>
       <c r="I55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3388,31 +3380,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B56" t="n">
-        <v>764</v>
+        <v>711</v>
       </c>
       <c r="C56" t="n">
         <v>774</v>
       </c>
       <c r="D56" t="n">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="E56" t="n">
-        <v>698.5</v>
+        <v>760.0499877929688</v>
       </c>
       <c r="F56" t="n">
-        <v>691.1267700195312</v>
+        <v>752.0270385742188</v>
       </c>
       <c r="G56" t="n">
-        <v>989726</v>
+        <v>3463784</v>
       </c>
       <c r="H56" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3441,31 +3433,31 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B57" t="n">
-        <v>709.25</v>
+        <v>764</v>
       </c>
       <c r="C57" t="n">
-        <v>725</v>
+        <v>774</v>
       </c>
       <c r="D57" t="n">
-        <v>623.0499877929688</v>
+        <v>689</v>
       </c>
       <c r="E57" t="n">
-        <v>675.5499877929688</v>
+        <v>698.5</v>
       </c>
       <c r="F57" t="n">
-        <v>668.4190063476562</v>
+        <v>691.1267700195312</v>
       </c>
       <c r="G57" t="n">
-        <v>997627</v>
+        <v>989726</v>
       </c>
       <c r="H57" t="n">
         <v>2022</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,45 +3472,45 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B58" t="n">
+        <v>709.25</v>
+      </c>
+      <c r="C58" t="n">
+        <v>725</v>
+      </c>
+      <c r="D58" t="n">
+        <v>623.0499877929688</v>
+      </c>
+      <c r="E58" t="n">
         <v>675.5499877929688</v>
       </c>
-      <c r="C58" t="n">
-        <v>748</v>
-      </c>
-      <c r="D58" t="n">
-        <v>657.25</v>
-      </c>
-      <c r="E58" t="n">
-        <v>688.7000122070312</v>
-      </c>
       <c r="F58" t="n">
-        <v>681.4302368164062</v>
+        <v>668.4190063476562</v>
       </c>
       <c r="G58" t="n">
-        <v>1089175</v>
+        <v>997627</v>
       </c>
       <c r="H58" t="n">
         <v>2022</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3533,45 +3525,45 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B59" t="n">
-        <v>684.5499877929688</v>
+        <v>675.5499877929688</v>
       </c>
       <c r="C59" t="n">
-        <v>745.2000122070312</v>
+        <v>748</v>
       </c>
       <c r="D59" t="n">
-        <v>658.25</v>
+        <v>657.25</v>
       </c>
       <c r="E59" t="n">
-        <v>680.9500122070312</v>
+        <v>688.7000122070312</v>
       </c>
       <c r="F59" t="n">
-        <v>673.7620239257812</v>
+        <v>681.4302368164062</v>
       </c>
       <c r="G59" t="n">
-        <v>1482815</v>
+        <v>1089175</v>
       </c>
       <c r="H59" t="n">
         <v>2022</v>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3586,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -3600,31 +3592,31 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B60" t="n">
-        <v>680</v>
+        <v>684.5499877929688</v>
       </c>
       <c r="C60" t="n">
-        <v>724</v>
+        <v>745.2000122070312</v>
       </c>
       <c r="D60" t="n">
-        <v>650.8499755859375</v>
+        <v>658.25</v>
       </c>
       <c r="E60" t="n">
-        <v>667.7999877929688</v>
+        <v>680.9500122070312</v>
       </c>
       <c r="F60" t="n">
-        <v>660.7507934570312</v>
+        <v>673.7620239257812</v>
       </c>
       <c r="G60" t="n">
-        <v>1555121</v>
+        <v>1482815</v>
       </c>
       <c r="H60" t="n">
         <v>2022</v>
       </c>
       <c r="I60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3639,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -3653,31 +3645,31 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B61" t="n">
-        <v>672.5</v>
+        <v>680</v>
       </c>
       <c r="C61" t="n">
-        <v>679.3499755859375</v>
+        <v>724</v>
       </c>
       <c r="D61" t="n">
-        <v>600.2999877929688</v>
+        <v>650.8499755859375</v>
       </c>
       <c r="E61" t="n">
-        <v>667.2000122070312</v>
+        <v>667.7999877929688</v>
       </c>
       <c r="F61" t="n">
-        <v>660.1571655273438</v>
+        <v>660.7507934570312</v>
       </c>
       <c r="G61" t="n">
-        <v>542064</v>
+        <v>1555121</v>
       </c>
       <c r="H61" t="n">
         <v>2022</v>
       </c>
       <c r="I61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3692,45 +3684,45 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B62" t="n">
-        <v>670.5499877929688</v>
+        <v>672.5</v>
       </c>
       <c r="C62" t="n">
-        <v>692</v>
+        <v>679.3499755859375</v>
       </c>
       <c r="D62" t="n">
-        <v>634.5499877929688</v>
+        <v>600.2999877929688</v>
       </c>
       <c r="E62" t="n">
-        <v>678.4500122070312</v>
+        <v>667.2000122070312</v>
       </c>
       <c r="F62" t="n">
-        <v>671.2884521484375</v>
+        <v>660.1571655273438</v>
       </c>
       <c r="G62" t="n">
-        <v>493483</v>
+        <v>542064</v>
       </c>
       <c r="H62" t="n">
         <v>2022</v>
       </c>
       <c r="I62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3745,45 +3737,45 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B63" t="n">
-        <v>681.8499755859375</v>
+        <v>670.5499877929688</v>
       </c>
       <c r="C63" t="n">
-        <v>721.5</v>
+        <v>692</v>
       </c>
       <c r="D63" t="n">
-        <v>663.0499877929688</v>
+        <v>634.5499877929688</v>
       </c>
       <c r="E63" t="n">
-        <v>691</v>
+        <v>678.4500122070312</v>
       </c>
       <c r="F63" t="n">
-        <v>683.7059326171875</v>
+        <v>671.2884521484375</v>
       </c>
       <c r="G63" t="n">
-        <v>578055</v>
+        <v>493483</v>
       </c>
       <c r="H63" t="n">
         <v>2022</v>
       </c>
       <c r="I63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3798,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -3812,31 +3804,31 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B64" t="n">
-        <v>694.5</v>
+        <v>681.8499755859375</v>
       </c>
       <c r="C64" t="n">
-        <v>722</v>
+        <v>721.5</v>
       </c>
       <c r="D64" t="n">
-        <v>674</v>
+        <v>663.0499877929688</v>
       </c>
       <c r="E64" t="n">
-        <v>710.9500122070312</v>
+        <v>691</v>
       </c>
       <c r="F64" t="n">
-        <v>710.9500122070312</v>
+        <v>683.7059326171875</v>
       </c>
       <c r="G64" t="n">
-        <v>715292</v>
+        <v>578055</v>
       </c>
       <c r="H64" t="n">
         <v>2022</v>
       </c>
       <c r="I64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3851,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -3865,31 +3857,31 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B65" t="n">
-        <v>702.0499877929688</v>
+        <v>694.5</v>
       </c>
       <c r="C65" t="n">
-        <v>749.7999877929688</v>
+        <v>722</v>
       </c>
       <c r="D65" t="n">
-        <v>695.5499877929688</v>
+        <v>674</v>
       </c>
       <c r="E65" t="n">
-        <v>738.5499877929688</v>
+        <v>710.9500122070312</v>
       </c>
       <c r="F65" t="n">
-        <v>738.5499877929688</v>
+        <v>710.9500122070312</v>
       </c>
       <c r="G65" t="n">
-        <v>1976150</v>
+        <v>715292</v>
       </c>
       <c r="H65" t="n">
         <v>2022</v>
       </c>
       <c r="I65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -3904,45 +3896,45 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B66" t="n">
-        <v>735.2999877929688</v>
+        <v>702.0499877929688</v>
       </c>
       <c r="C66" t="n">
-        <v>744.5</v>
+        <v>749.7999877929688</v>
       </c>
       <c r="D66" t="n">
-        <v>661</v>
+        <v>695.5499877929688</v>
       </c>
       <c r="E66" t="n">
-        <v>673.5</v>
+        <v>738.5499877929688</v>
       </c>
       <c r="F66" t="n">
-        <v>673.5</v>
+        <v>738.5499877929688</v>
       </c>
       <c r="G66" t="n">
-        <v>767861</v>
+        <v>1976150</v>
       </c>
       <c r="H66" t="n">
         <v>2022</v>
       </c>
       <c r="I66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -3957,45 +3949,45 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B67" t="n">
-        <v>672.5999755859375</v>
+        <v>735.2999877929688</v>
       </c>
       <c r="C67" t="n">
-        <v>687.2999877929688</v>
+        <v>744.5</v>
       </c>
       <c r="D67" t="n">
-        <v>636.3499755859375</v>
+        <v>661</v>
       </c>
       <c r="E67" t="n">
-        <v>647.25</v>
+        <v>673.5</v>
       </c>
       <c r="F67" t="n">
-        <v>647.25</v>
+        <v>673.5</v>
       </c>
       <c r="G67" t="n">
-        <v>1319837</v>
+        <v>767861</v>
       </c>
       <c r="H67" t="n">
         <v>2022</v>
       </c>
       <c r="I67" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4010,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -4024,31 +4016,31 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B68" t="n">
-        <v>657.9000244140625</v>
+        <v>672.5999755859375</v>
       </c>
       <c r="C68" t="n">
-        <v>672</v>
+        <v>687.2999877929688</v>
       </c>
       <c r="D68" t="n">
-        <v>605.75</v>
+        <v>636.3499755859375</v>
       </c>
       <c r="E68" t="n">
-        <v>610.7000122070312</v>
+        <v>647.25</v>
       </c>
       <c r="F68" t="n">
-        <v>610.7000122070312</v>
+        <v>647.25</v>
       </c>
       <c r="G68" t="n">
-        <v>747796</v>
+        <v>1319837</v>
       </c>
       <c r="H68" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4063,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -4077,31 +4069,31 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B69" t="n">
-        <v>613.2999877929688</v>
+        <v>657.9000244140625</v>
       </c>
       <c r="C69" t="n">
-        <v>659.8499755859375</v>
+        <v>672</v>
       </c>
       <c r="D69" t="n">
-        <v>602.5</v>
+        <v>605.75</v>
       </c>
       <c r="E69" t="n">
-        <v>634.5499877929688</v>
+        <v>610.7000122070312</v>
       </c>
       <c r="F69" t="n">
-        <v>634.5499877929688</v>
+        <v>610.7000122070312</v>
       </c>
       <c r="G69" t="n">
-        <v>459338</v>
+        <v>747796</v>
       </c>
       <c r="H69" t="n">
         <v>2023</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4116,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4125,36 +4117,36 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B70" t="n">
-        <v>633.5</v>
+        <v>613.2999877929688</v>
       </c>
       <c r="C70" t="n">
-        <v>640.0999755859375</v>
+        <v>659.8499755859375</v>
       </c>
       <c r="D70" t="n">
-        <v>551.2999877929688</v>
+        <v>602.5</v>
       </c>
       <c r="E70" t="n">
-        <v>572.0999755859375</v>
+        <v>634.5499877929688</v>
       </c>
       <c r="F70" t="n">
-        <v>572.0999755859375</v>
+        <v>634.5499877929688</v>
       </c>
       <c r="G70" t="n">
-        <v>3640226</v>
+        <v>459338</v>
       </c>
       <c r="H70" t="n">
         <v>2023</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4169,45 +4161,45 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
         <v>2</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B71" t="n">
-        <v>576.4500122070312</v>
+        <v>633.5</v>
       </c>
       <c r="C71" t="n">
-        <v>648</v>
+        <v>640.0999755859375</v>
       </c>
       <c r="D71" t="n">
-        <v>575</v>
+        <v>551.2999877929688</v>
       </c>
       <c r="E71" t="n">
-        <v>631.25</v>
+        <v>572.0999755859375</v>
       </c>
       <c r="F71" t="n">
-        <v>631.25</v>
+        <v>572.0999755859375</v>
       </c>
       <c r="G71" t="n">
-        <v>1977485</v>
+        <v>3640226</v>
       </c>
       <c r="H71" t="n">
         <v>2023</v>
       </c>
       <c r="I71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4222,10 +4214,10 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -4236,31 +4228,31 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B72" t="n">
+        <v>576.4500122070312</v>
+      </c>
+      <c r="C72" t="n">
+        <v>648</v>
+      </c>
+      <c r="D72" t="n">
+        <v>575</v>
+      </c>
+      <c r="E72" t="n">
         <v>631.25</v>
       </c>
-      <c r="C72" t="n">
-        <v>646.75</v>
-      </c>
-      <c r="D72" t="n">
-        <v>605</v>
-      </c>
-      <c r="E72" t="n">
-        <v>641.7000122070312</v>
-      </c>
       <c r="F72" t="n">
-        <v>641.7000122070312</v>
+        <v>631.25</v>
       </c>
       <c r="G72" t="n">
-        <v>1145658</v>
+        <v>1977485</v>
       </c>
       <c r="H72" t="n">
         <v>2023</v>
       </c>
       <c r="I72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4275,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4289,31 +4281,31 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B73" t="n">
-        <v>645.7999877929688</v>
+        <v>631.25</v>
       </c>
       <c r="C73" t="n">
-        <v>719.4000244140625</v>
+        <v>646.75</v>
       </c>
       <c r="D73" t="n">
-        <v>634.1500244140625</v>
+        <v>605</v>
       </c>
       <c r="E73" t="n">
-        <v>698.9000244140625</v>
+        <v>641.7000122070312</v>
       </c>
       <c r="F73" t="n">
-        <v>698.9000244140625</v>
+        <v>641.7000122070312</v>
       </c>
       <c r="G73" t="n">
-        <v>1028592</v>
+        <v>1145658</v>
       </c>
       <c r="H73" t="n">
         <v>2023</v>
       </c>
       <c r="I73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4328,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -4342,31 +4334,31 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B74" t="n">
-        <v>702.75</v>
+        <v>645.7999877929688</v>
       </c>
       <c r="C74" t="n">
-        <v>798.7000122070312</v>
+        <v>719.4000244140625</v>
       </c>
       <c r="D74" t="n">
-        <v>682.8499755859375</v>
+        <v>634.1500244140625</v>
       </c>
       <c r="E74" t="n">
-        <v>791.7000122070312</v>
+        <v>698.9000244140625</v>
       </c>
       <c r="F74" t="n">
-        <v>791.7000122070312</v>
+        <v>698.9000244140625</v>
       </c>
       <c r="G74" t="n">
-        <v>7635453</v>
+        <v>1028592</v>
       </c>
       <c r="H74" t="n">
         <v>2023</v>
       </c>
       <c r="I74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4381,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -4390,36 +4382,36 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B75" t="n">
-        <v>800</v>
+        <v>702.75</v>
       </c>
       <c r="C75" t="n">
-        <v>880</v>
+        <v>798.7000122070312</v>
       </c>
       <c r="D75" t="n">
-        <v>786.0999755859375</v>
+        <v>682.8499755859375</v>
       </c>
       <c r="E75" t="n">
-        <v>810</v>
+        <v>791.7000122070312</v>
       </c>
       <c r="F75" t="n">
-        <v>810</v>
+        <v>791.7000122070312</v>
       </c>
       <c r="G75" t="n">
-        <v>3582919</v>
+        <v>7635453</v>
       </c>
       <c r="H75" t="n">
         <v>2023</v>
       </c>
       <c r="I75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4434,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4443,36 +4435,36 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B76" t="n">
+        <v>800</v>
+      </c>
+      <c r="C76" t="n">
+        <v>880</v>
+      </c>
+      <c r="D76" t="n">
+        <v>786.0999755859375</v>
+      </c>
+      <c r="E76" t="n">
         <v>810</v>
       </c>
-      <c r="C76" t="n">
-        <v>927.9500122070312</v>
-      </c>
-      <c r="D76" t="n">
-        <v>792.3499755859375</v>
-      </c>
-      <c r="E76" t="n">
-        <v>876.2999877929688</v>
-      </c>
       <c r="F76" t="n">
-        <v>876.2999877929688</v>
+        <v>810</v>
       </c>
       <c r="G76" t="n">
-        <v>4165123</v>
+        <v>3582919</v>
       </c>
       <c r="H76" t="n">
         <v>2023</v>
       </c>
       <c r="I76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -4487,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -4501,31 +4493,31 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B77" t="n">
+        <v>810</v>
+      </c>
+      <c r="C77" t="n">
+        <v>927.9500122070312</v>
+      </c>
+      <c r="D77" t="n">
+        <v>792.3499755859375</v>
+      </c>
+      <c r="E77" t="n">
         <v>876.2999877929688</v>
       </c>
-      <c r="C77" t="n">
-        <v>924.7999877929688</v>
-      </c>
-      <c r="D77" t="n">
-        <v>804</v>
-      </c>
-      <c r="E77" t="n">
-        <v>859.5</v>
-      </c>
       <c r="F77" t="n">
-        <v>859.5</v>
+        <v>876.2999877929688</v>
       </c>
       <c r="G77" t="n">
-        <v>2628940</v>
+        <v>4165123</v>
       </c>
       <c r="H77" t="n">
         <v>2023</v>
       </c>
       <c r="I77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4540,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -4554,31 +4546,31 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B78" t="n">
+        <v>876.2999877929688</v>
+      </c>
+      <c r="C78" t="n">
+        <v>924.7999877929688</v>
+      </c>
+      <c r="D78" t="n">
+        <v>804</v>
+      </c>
+      <c r="E78" t="n">
         <v>859.5</v>
       </c>
-      <c r="C78" t="n">
-        <v>971.9000244140625</v>
-      </c>
-      <c r="D78" t="n">
-        <v>852.5499877929688</v>
-      </c>
-      <c r="E78" t="n">
-        <v>934.6500244140625</v>
-      </c>
       <c r="F78" t="n">
-        <v>934.6500244140625</v>
+        <v>859.5</v>
       </c>
       <c r="G78" t="n">
-        <v>3370380</v>
+        <v>2628940</v>
       </c>
       <c r="H78" t="n">
         <v>2023</v>
       </c>
       <c r="I78" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -4593,10 +4585,10 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -4607,31 +4599,31 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B79" t="n">
-        <v>940.9500122070312</v>
+        <v>859.5</v>
       </c>
       <c r="C79" t="n">
-        <v>949.6500244140625</v>
+        <v>971.9000244140625</v>
       </c>
       <c r="D79" t="n">
-        <v>847.1500244140625</v>
+        <v>852.5499877929688</v>
       </c>
       <c r="E79" t="n">
-        <v>910</v>
+        <v>934.6500244140625</v>
       </c>
       <c r="F79" t="n">
-        <v>910</v>
+        <v>934.6500244140625</v>
       </c>
       <c r="G79" t="n">
-        <v>2471085</v>
+        <v>3370380</v>
       </c>
       <c r="H79" t="n">
         <v>2023</v>
       </c>
       <c r="I79" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -4646,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -4660,31 +4652,31 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B80" t="n">
-        <v>914.5499877929688</v>
+        <v>940.9500122070312</v>
       </c>
       <c r="C80" t="n">
-        <v>940.0499877929688</v>
+        <v>949.6500244140625</v>
       </c>
       <c r="D80" t="n">
-        <v>867</v>
+        <v>847.1500244140625</v>
       </c>
       <c r="E80" t="n">
-        <v>916.25</v>
+        <v>910</v>
       </c>
       <c r="F80" t="n">
-        <v>916.25</v>
+        <v>910</v>
       </c>
       <c r="G80" t="n">
-        <v>5223697</v>
+        <v>2471085</v>
       </c>
       <c r="H80" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -4699,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -4713,31 +4705,31 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B81" t="n">
-        <v>929.0999755859375</v>
+        <v>914.5499877929688</v>
       </c>
       <c r="C81" t="n">
-        <v>962.9000244140625</v>
+        <v>940.0499877929688</v>
       </c>
       <c r="D81" t="n">
-        <v>846.3499755859375</v>
+        <v>867</v>
       </c>
       <c r="E81" t="n">
-        <v>883.0499877929688</v>
+        <v>916.25</v>
       </c>
       <c r="F81" t="n">
-        <v>883.0499877929688</v>
+        <v>916.25</v>
       </c>
       <c r="G81" t="n">
-        <v>5271198</v>
+        <v>5223697</v>
       </c>
       <c r="H81" t="n">
         <v>2024</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -4752,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -4766,31 +4758,31 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B82" t="n">
-        <v>886.5999755859375</v>
+        <v>929.0999755859375</v>
       </c>
       <c r="C82" t="n">
-        <v>934.5499877929688</v>
+        <v>962.9000244140625</v>
       </c>
       <c r="D82" t="n">
-        <v>809.1500244140625</v>
+        <v>846.3499755859375</v>
       </c>
       <c r="E82" t="n">
-        <v>843.3499755859375</v>
+        <v>883.0499877929688</v>
       </c>
       <c r="F82" t="n">
-        <v>843.3499755859375</v>
+        <v>883.0499877929688</v>
       </c>
       <c r="G82" t="n">
-        <v>3344534</v>
+        <v>5271198</v>
       </c>
       <c r="H82" t="n">
         <v>2024</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -4805,45 +4797,45 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B83" t="n">
-        <v>843.9000244140625</v>
+        <v>886.5999755859375</v>
       </c>
       <c r="C83" t="n">
-        <v>905.2999877929688</v>
+        <v>934.5499877929688</v>
       </c>
       <c r="D83" t="n">
-        <v>824.2999877929688</v>
+        <v>809.1500244140625</v>
       </c>
       <c r="E83" t="n">
-        <v>895.9500122070312</v>
+        <v>843.3499755859375</v>
       </c>
       <c r="F83" t="n">
-        <v>895.9500122070312</v>
+        <v>843.3499755859375</v>
       </c>
       <c r="G83" t="n">
-        <v>2033899</v>
+        <v>3344534</v>
       </c>
       <c r="H83" t="n">
         <v>2024</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -4858,45 +4850,45 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B84" t="n">
+        <v>843.9000244140625</v>
+      </c>
+      <c r="C84" t="n">
+        <v>905.2999877929688</v>
+      </c>
+      <c r="D84" t="n">
+        <v>824.2999877929688</v>
+      </c>
+      <c r="E84" t="n">
         <v>895.9500122070312</v>
       </c>
-      <c r="C84" t="n">
-        <v>925</v>
-      </c>
-      <c r="D84" t="n">
-        <v>833.5499877929688</v>
-      </c>
-      <c r="E84" t="n">
-        <v>916.0999755859375</v>
-      </c>
       <c r="F84" t="n">
-        <v>916.0999755859375</v>
+        <v>895.9500122070312</v>
       </c>
       <c r="G84" t="n">
-        <v>4133210</v>
+        <v>2033899</v>
       </c>
       <c r="H84" t="n">
         <v>2024</v>
       </c>
       <c r="I84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -4911,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -4925,56 +4917,514 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B85" t="n">
-        <v>926</v>
+        <v>895.9500122070312</v>
       </c>
       <c r="C85" t="n">
-        <v>1008</v>
+        <v>925</v>
       </c>
       <c r="D85" t="n">
-        <v>815.8499755859375</v>
+        <v>833.5499877929688</v>
       </c>
       <c r="E85" t="n">
-        <v>994.4500122070312</v>
+        <v>916.0999755859375</v>
       </c>
       <c r="F85" t="n">
-        <v>994.4500122070312</v>
+        <v>916.0999755859375</v>
       </c>
       <c r="G85" t="n">
-        <v>1808484</v>
+        <v>4133210</v>
       </c>
       <c r="H85" t="n">
         <v>2024</v>
       </c>
       <c r="I85" t="n">
+        <v>5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>18</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B86" t="n">
+        <v>926</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D86" t="n">
+        <v>815.8499755859375</v>
+      </c>
+      <c r="E86" t="n">
+        <v>994.4500122070312</v>
+      </c>
+      <c r="F86" t="n">
+        <v>994.4500122070312</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1808484</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I86" t="n">
         <v>6</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" t="n">
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
         <v>22</v>
       </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0</v>
-      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1019.213511564431</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1128.59252256159</v>
+      </c>
+      <c r="D87" t="n">
+        <v>981.5274462264465</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1126.355224609375</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>5598732</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I87" t="n">
+        <v>7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>27</v>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1123.620722372775</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1391.10211557479</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1045.116473552388</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1380.363037109375</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>5638978</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>31</v>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1381.208373153631</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1513.45754141392</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1241.551189932759</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1325.176391601562</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>7394642</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>35</v>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1325.1763113416</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1432.71578434789</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1206.201881950461</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1315.680297851562</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>5376811</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I90" t="n">
+        <v>10</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>40</v>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1319.508530173104</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1488.250454168016</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1279.734346897351</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1432.019775390625</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>2472492</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I91" t="n">
+        <v>11</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>44</v>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1442.758714749125</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1584.901773355398</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1310.211323400495</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1365.94482421875</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>2942941</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>48</v>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1372.209317004676</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1393.040996851661</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1125.261381948946</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1221.1171875</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>2111325</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1221.117226743746</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1491.432503058934</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1152.208403753218</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1176.122680664062</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>6266841</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>5</v>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1182.800048828125</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1499</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1140.449951171875</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1417.349975585938</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>3660416</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>9</v>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
